--- a/Proposed IFC mapping for bridge elements-OPTION 1c.xlsx
+++ b/Proposed IFC mapping for bridge elements-OPTION 1c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46a9f9bf925d9b04/Documents/JO Consulting/AASHTO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TPF-5_372-Unit_Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{E9AE0E0B-8F52-4FBE-B606-028263FC236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B9C755-97CB-40E0-85CA-771B3321A2E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3B1500-A2FB-4B25-BF64-8E28EC5A0B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="350" windowWidth="26120" windowHeight="20320" tabRatio="177" xr2:uid="{49A7BDAD-6780-4B84-88E9-3F690753013E}"/>
+    <workbookView xWindow="5890" yWindow="10" windowWidth="32430" windowHeight="20760" tabRatio="177" xr2:uid="{49A7BDAD-6780-4B84-88E9-3F690753013E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
   <si>
     <t>Pier</t>
   </si>
@@ -757,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -921,27 +921,261 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -960,257 +1194,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,10 +1239,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1496,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5C6886-39D3-4F4E-9CD9-1F633AE49753}">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1516,16 +1524,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="2" t="s">
         <v>97</v>
       </c>
@@ -1534,48 +1542,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
       <c r="I2" s="32" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="32" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="137" t="s">
+      <c r="A4" s="132"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="32" t="s">
         <v>84</v>
       </c>
@@ -1584,80 +1592,80 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="110" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="144" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="143" t="s">
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="55" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="98" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="32" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="107" t="s">
+      <c r="A8" s="132"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="32" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="107" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="140"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="32" t="s">
         <v>36</v>
       </c>
@@ -1666,28 +1674,28 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="141"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="64"/>
       <c r="I10" s="32" t="s">
         <v>127</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="142"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="42" t="s">
         <v>132</v>
       </c>
@@ -1696,32 +1704,32 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="72" t="s">
+      <c r="A12" s="132"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="32" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="139" t="s">
+      <c r="A13" s="132"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="43" t="s">
         <v>48</v>
       </c>
@@ -1730,16 +1738,16 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="72" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="32" t="s">
         <v>103</v>
       </c>
@@ -1748,16 +1756,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="92"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="72" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="32" t="s">
         <v>104</v>
       </c>
@@ -1766,32 +1774,32 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="108" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="32" t="s">
         <v>38</v>
       </c>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="92"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="99" t="s">
+      <c r="A17" s="132"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="132"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="32" t="s">
         <v>36</v>
       </c>
@@ -1800,46 +1808,46 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="92"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="71"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="32" t="s">
         <v>127</v>
       </c>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="122" t="s">
+      <c r="A19" s="132"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
       <c r="I19" s="32" t="s">
         <v>40</v>
       </c>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="57" t="s">
+      <c r="A20" s="132"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="32" t="s">
         <v>36</v>
       </c>
@@ -1848,46 +1856,46 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="32" t="s">
         <v>127</v>
       </c>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="59" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="32" t="s">
         <v>41</v>
       </c>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="92"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="59" t="s">
+      <c r="A23" s="132"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="71"/>
       <c r="I23" s="32" t="s">
         <v>103</v>
       </c>
@@ -1896,16 +1904,16 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="59" t="s">
+      <c r="A24" s="132"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="32" t="s">
         <v>104</v>
       </c>
@@ -1914,16 +1922,16 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="92"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="125" t="s">
+      <c r="A25" s="132"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
       <c r="I25" s="32" t="s">
         <v>53</v>
       </c>
@@ -1932,64 +1940,64 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="59" t="s">
+      <c r="A26" s="132"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="32" t="s">
         <v>54</v>
       </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="92"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="59" t="s">
+      <c r="A27" s="132"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="59" t="s">
+      <c r="A28" s="132"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="32" t="s">
         <v>56</v>
       </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="92"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="125" t="s">
+      <c r="A29" s="132"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="132"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="32" t="s">
         <v>53</v>
       </c>
@@ -1998,174 +2006,174 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="98" t="s">
+      <c r="A30" s="132"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="32" t="s">
         <v>53</v>
       </c>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="59" t="s">
+      <c r="A31" s="132"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="60"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="32" t="s">
         <v>64</v>
       </c>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="59" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="60"/>
+      <c r="H32" s="71"/>
       <c r="I32" s="32" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="59" t="s">
+      <c r="A33" s="132"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="60"/>
+      <c r="H33" s="71"/>
       <c r="I33" s="32" t="s">
         <v>64</v>
       </c>
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="59" t="s">
+      <c r="A34" s="132"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="71"/>
       <c r="I34" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="92"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="59" t="s">
+      <c r="A35" s="132"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="60"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="71"/>
       <c r="I35" s="32" t="s">
         <v>56</v>
       </c>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="59" t="s">
+      <c r="A36" s="132"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="60"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="71"/>
       <c r="I36" s="32" t="s">
         <v>68</v>
       </c>
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="92"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="125" t="s">
+      <c r="A37" s="132"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="134"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="32" t="s">
         <v>53</v>
       </c>
       <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="59" t="s">
+      <c r="A38" s="132"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="61"/>
-      <c r="H38" s="60"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="32" t="s">
         <v>54</v>
       </c>
       <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="92"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="57" t="s">
+      <c r="A39" s="132"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="32" t="s">
         <v>69</v>
       </c>
       <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="60"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
       <c r="I40" s="42" t="s">
         <v>132</v>
       </c>
@@ -2174,14 +2182,14 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="92"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="60"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="71"/>
       <c r="I41" s="32" t="s">
         <v>73</v>
       </c>
@@ -2190,44 +2198,44 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="73" t="s">
+      <c r="A42" s="132"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
       <c r="I42" s="32" t="s">
         <v>70</v>
       </c>
       <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="77"/>
+      <c r="A43" s="132"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117"/>
       <c r="I43" s="32" t="s">
         <v>71</v>
       </c>
       <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="77"/>
+      <c r="A44" s="132"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
       <c r="I44" s="32" t="s">
         <v>72</v>
       </c>
@@ -2236,48 +2244,48 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="59" t="s">
+      <c r="A45" s="132"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="60"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="71"/>
       <c r="I45" s="32" t="s">
         <v>51</v>
       </c>
       <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="65" t="s">
+      <c r="A46" s="132"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="134"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="112"/>
       <c r="I46" s="32" t="s">
         <v>79</v>
       </c>
       <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="92"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="59" t="s">
+      <c r="A47" s="132"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="60"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="32" t="s">
         <v>81</v>
       </c>
@@ -2286,217 +2294,217 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="92"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="68" t="s">
+      <c r="A48" s="132"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
       <c r="I48" s="32" t="s">
         <v>82</v>
       </c>
       <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="92"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="71"/>
+      <c r="A49" s="132"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="42" t="s">
         <v>134</v>
       </c>
       <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="92"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="125" t="s">
+      <c r="A50" s="132"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" s="155" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="132"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="128"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="32" t="s">
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J50" s="33"/>
-    </row>
-    <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="92"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="59" t="s">
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="132"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="42" t="s">
+      <c r="G52" s="87"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="92"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="61"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="42" t="s">
-        <v>95</v>
       </c>
       <c r="J52" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="119" t="s">
+      <c r="A53" s="132"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="87"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="132"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="32" t="s">
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="J53" s="33"/>
-    </row>
-    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="32"/>
       <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="92"/>
-      <c r="B55" s="95"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
+      <c r="A55" s="132"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="32"/>
       <c r="J55" s="33"/>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="92"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="113" t="s">
+      <c r="A56" s="132"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="132"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="32" t="s">
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J56" s="33"/>
-    </row>
-    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="6" t="s">
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="132"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="32" t="s">
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J57" s="37"/>
-    </row>
-    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="92"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="61"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J58" s="33" t="s">
-        <v>107</v>
-      </c>
+      <c r="J58" s="37"/>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="92"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="114"/>
+      <c r="A59" s="132"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="60"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="71"/>
       <c r="I59" s="32" t="s">
         <v>51</v>
       </c>
       <c r="J59" s="33"/>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="92"/>
-      <c r="B60" s="95"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="114"/>
+      <c r="A60" s="132"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="92"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="98" t="s">
+      <c r="F60" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="101"/>
-      <c r="H60" s="102"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="86"/>
       <c r="I60" s="32" t="s">
         <v>108</v>
       </c>
       <c r="J60" s="33"/>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="92"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="114"/>
+      <c r="A61" s="132"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="55" t="s">
+      <c r="F61" s="56"/>
+      <c r="G61" s="138" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="50"/>
@@ -2508,13 +2516,13 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="92"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="114"/>
+      <c r="A62" s="132"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="139"/>
       <c r="H62" s="32"/>
       <c r="I62" s="32" t="s">
         <v>127</v>
@@ -2522,13 +2530,13 @@
       <c r="J62" s="33"/>
     </row>
     <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="92"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="114"/>
+      <c r="A63" s="132"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="57" t="s">
+      <c r="F63" s="56"/>
+      <c r="G63" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H63" s="32"/>
@@ -2538,13 +2546,13 @@
       <c r="J63" s="33"/>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="92"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="114"/>
+      <c r="A64" s="132"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="58"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="69"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32" t="s">
         <v>90</v>
@@ -2554,45 +2562,45 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="92"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="114"/>
+      <c r="A65" s="132"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="100"/>
-      <c r="G65" s="59" t="s">
+      <c r="F65" s="58"/>
+      <c r="G65" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="60"/>
+      <c r="H65" s="71"/>
       <c r="I65" s="32" t="s">
         <v>51</v>
       </c>
       <c r="J65" s="33"/>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="114"/>
+      <c r="A66" s="132"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="107" t="s">
+      <c r="F66" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="101"/>
-      <c r="H66" s="102"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="86"/>
       <c r="I66" s="32" t="s">
         <v>89</v>
       </c>
       <c r="J66" s="33"/>
     </row>
     <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="92"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="114"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="57" t="s">
+      <c r="F67" s="61"/>
+      <c r="G67" s="68" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="32"/>
@@ -2604,13 +2612,13 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="92"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="114"/>
+      <c r="A68" s="132"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="58"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="69"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32" t="s">
         <v>127</v>
@@ -2618,13 +2626,13 @@
       <c r="J68" s="33"/>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="114"/>
+      <c r="A69" s="132"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="92"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="57" t="s">
+      <c r="F69" s="61"/>
+      <c r="G69" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H69" s="32"/>
@@ -2634,13 +2642,13 @@
       <c r="J69" s="33"/>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="92"/>
-      <c r="B70" s="95"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="114"/>
+      <c r="A70" s="132"/>
+      <c r="B70" s="135"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="108"/>
-      <c r="G70" s="58"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="69"/>
       <c r="H70" s="32"/>
       <c r="I70" s="32" t="s">
         <v>90</v>
@@ -2650,45 +2658,45 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="92"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="114"/>
+      <c r="A71" s="132"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="59" t="s">
+      <c r="F71" s="62"/>
+      <c r="G71" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="60"/>
+      <c r="H71" s="71"/>
       <c r="I71" s="32" t="s">
         <v>51</v>
       </c>
       <c r="J71" s="33"/>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="92"/>
-      <c r="B72" s="95"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="114"/>
+      <c r="A72" s="132"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="116" t="s">
+      <c r="F72" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="101"/>
-      <c r="H72" s="102"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="86"/>
       <c r="I72" s="32" t="s">
         <v>109</v>
       </c>
       <c r="J72" s="33"/>
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="92"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="114"/>
+      <c r="A73" s="132"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="92"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="57" t="s">
+      <c r="F73" s="95"/>
+      <c r="G73" s="68" t="s">
         <v>2</v>
       </c>
       <c r="H73" s="32"/>
@@ -2700,13 +2708,13 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="92"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="114"/>
+      <c r="A74" s="132"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="92"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="58"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="69"/>
       <c r="H74" s="32"/>
       <c r="I74" s="32" t="s">
         <v>127</v>
@@ -2714,13 +2722,13 @@
       <c r="J74" s="33"/>
     </row>
     <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="92"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="138"/>
-      <c r="D75" s="114"/>
+      <c r="A75" s="132"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="92"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="57" t="s">
+      <c r="F75" s="95"/>
+      <c r="G75" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H75" s="32"/>
@@ -2730,13 +2738,13 @@
       <c r="J75" s="33"/>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="92"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="138"/>
-      <c r="D76" s="114"/>
+      <c r="A76" s="132"/>
+      <c r="B76" s="135"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="92"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="58"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="69"/>
       <c r="H76" s="32"/>
       <c r="I76" s="32" t="s">
         <v>90</v>
@@ -2746,45 +2754,45 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="138"/>
-      <c r="D77" s="114"/>
+      <c r="A77" s="132"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="59" t="s">
+      <c r="F77" s="96"/>
+      <c r="G77" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H77" s="60"/>
+      <c r="H77" s="71"/>
       <c r="I77" s="32" t="s">
         <v>51</v>
       </c>
       <c r="J77" s="33"/>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="92"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="114"/>
+      <c r="A78" s="132"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="92"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="146" t="s">
+      <c r="F78" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="G78" s="89"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="143" t="s">
+      <c r="G78" s="77"/>
+      <c r="H78" s="78"/>
+      <c r="I78" s="55" t="s">
         <v>131</v>
       </c>
       <c r="J78" s="33"/>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="92"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="114"/>
+      <c r="A79" s="132"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="92"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="98" t="s">
+      <c r="F79" s="75"/>
+      <c r="G79" s="79" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="41"/>
@@ -2794,14 +2802,14 @@
       <c r="J79" s="33"/>
     </row>
     <row r="80" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="92"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="138"/>
-      <c r="D80" s="114"/>
+      <c r="A80" s="132"/>
+      <c r="B80" s="135"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="92"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="147"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="57" t="s">
+      <c r="F80" s="75"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="68" t="s">
         <v>2</v>
       </c>
       <c r="I80" s="32" t="s">
@@ -2812,28 +2820,28 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="92"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="138"/>
-      <c r="D81" s="114"/>
+      <c r="A81" s="132"/>
+      <c r="B81" s="135"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="92"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="147"/>
-      <c r="G81" s="99"/>
-      <c r="H81" s="58"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="69"/>
       <c r="I81" s="32" t="s">
         <v>127</v>
       </c>
       <c r="J81" s="33"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="92"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="138"/>
-      <c r="D82" s="114"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="135"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="92"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="147"/>
-      <c r="G82" s="99"/>
-      <c r="H82" s="57" t="s">
+      <c r="F82" s="75"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="68" t="s">
         <v>3</v>
       </c>
       <c r="I82" s="32" t="s">
@@ -2842,14 +2850,14 @@
       <c r="J82" s="33"/>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="92"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="138"/>
-      <c r="D83" s="114"/>
+      <c r="A83" s="132"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="92"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="147"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="58"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="69"/>
       <c r="I83" s="32" t="s">
         <v>90</v>
       </c>
@@ -2858,13 +2866,13 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="92"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="138"/>
-      <c r="D84" s="114"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="147"/>
-      <c r="G84" s="98" t="s">
+      <c r="F84" s="75"/>
+      <c r="G84" s="79" t="s">
         <v>4</v>
       </c>
       <c r="H84" s="41"/>
@@ -2876,13 +2884,13 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="92"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="138"/>
-      <c r="D85" s="114"/>
+      <c r="A85" s="132"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="147"/>
-      <c r="G85" s="99"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="56"/>
       <c r="H85" s="47" t="s">
         <v>111</v>
       </c>
@@ -2892,13 +2900,13 @@
       <c r="J85" s="33"/>
     </row>
     <row r="86" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="92"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="114"/>
+      <c r="A86" s="132"/>
+      <c r="B86" s="135"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="147"/>
-      <c r="G86" s="99"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="47" t="s">
         <v>112</v>
       </c>
@@ -2908,13 +2916,13 @@
       <c r="J86" s="33"/>
     </row>
     <row r="87" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="92"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="138"/>
-      <c r="D87" s="114"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="147"/>
-      <c r="G87" s="99"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="47" t="s">
         <v>113</v>
       </c>
@@ -2924,13 +2932,13 @@
       <c r="J87" s="33"/>
     </row>
     <row r="88" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="92"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="114"/>
+      <c r="A88" s="132"/>
+      <c r="B88" s="135"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="147"/>
-      <c r="G88" s="99"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="56"/>
       <c r="H88" s="47" t="s">
         <v>117</v>
       </c>
@@ -2940,14 +2948,14 @@
       <c r="J88" s="33"/>
     </row>
     <row r="89" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="92"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="138"/>
-      <c r="D89" s="114"/>
+      <c r="A89" s="132"/>
+      <c r="B89" s="135"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="92"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="147"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="57" t="s">
+      <c r="F89" s="75"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="68" t="s">
         <v>2</v>
       </c>
       <c r="I89" s="32" t="s">
@@ -2958,27 +2966,27 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="92"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="138"/>
-      <c r="D90" s="114"/>
+      <c r="A90" s="132"/>
+      <c r="B90" s="135"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="92"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="147"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="58"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="69"/>
       <c r="I90" s="32" t="s">
         <v>127</v>
       </c>
       <c r="J90" s="33"/>
     </row>
     <row r="91" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="92"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="138"/>
-      <c r="D91" s="114"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="135"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="92"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="148"/>
-      <c r="G91" s="100"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="58"/>
       <c r="H91" s="47"/>
       <c r="I91" s="42"/>
       <c r="J91" s="37" t="s">
@@ -2986,879 +2994,864 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="92"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="138"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="62" t="s">
+      <c r="A92" s="132"/>
+      <c r="B92" s="135"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-      <c r="H92" s="136"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="67"/>
       <c r="I92" s="32" t="s">
         <v>34</v>
       </c>
       <c r="J92" s="37"/>
     </row>
     <row r="93" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="92"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="138"/>
-      <c r="D93" s="114"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G93" s="61"/>
-      <c r="H93" s="60"/>
+      <c r="A93" s="132"/>
+      <c r="B93" s="135"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="85"/>
+      <c r="H93" s="86"/>
       <c r="I93" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J93" s="33" t="s">
-        <v>107</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J93" s="33"/>
     </row>
     <row r="94" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="92"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="138"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="G94" s="101"/>
-      <c r="H94" s="102"/>
+      <c r="A94" s="132"/>
+      <c r="B94" s="135"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="32"/>
       <c r="I94" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="J94" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="J94" s="33" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="95" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="92"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="138"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="57" t="s">
-        <v>2</v>
-      </c>
+      <c r="A95" s="132"/>
+      <c r="B95" s="135"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="141"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="69"/>
       <c r="H95" s="32"/>
       <c r="I95" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J95" s="33" t="s">
-        <v>77</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J95" s="33"/>
     </row>
     <row r="96" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="92"/>
-      <c r="B96" s="95"/>
-      <c r="C96" s="138"/>
-      <c r="D96" s="114"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="58"/>
+      <c r="A96" s="132"/>
+      <c r="B96" s="135"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="141"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="68" t="s">
+        <v>3</v>
+      </c>
       <c r="H96" s="32"/>
       <c r="I96" s="32" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="J96" s="33"/>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="92"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="138"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="57" t="s">
-        <v>3</v>
-      </c>
+      <c r="A97" s="132"/>
+      <c r="B97" s="135"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="141"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="69"/>
       <c r="H97" s="32"/>
       <c r="I97" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J97" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="132"/>
+      <c r="B98" s="135"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="141"/>
+      <c r="F98" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="77"/>
+      <c r="H98" s="78"/>
+      <c r="I98" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="J98" s="33"/>
+    </row>
+    <row r="99" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="132"/>
+      <c r="B99" s="135"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J99" s="33"/>
+    </row>
+    <row r="100" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="132"/>
+      <c r="B100" s="135"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="141"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J100" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="132"/>
+      <c r="B101" s="135"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="141"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J101" s="33"/>
+    </row>
+    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="132"/>
+      <c r="B102" s="135"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="141"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J97" s="33"/>
-    </row>
-    <row r="98" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="92"/>
-      <c r="B98" s="95"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32" t="s">
+      <c r="J102" s="33"/>
+    </row>
+    <row r="103" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="132"/>
+      <c r="B103" s="135"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="141"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="J98" s="33" t="s">
+      <c r="J103" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="92"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="138"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="G99" s="89"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="143" t="s">
-        <v>131</v>
-      </c>
-      <c r="J99" s="33"/>
-    </row>
-    <row r="100" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="92"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="138"/>
-      <c r="D100" s="114"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="150"/>
-      <c r="G100" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="35"/>
-      <c r="I100" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J100" s="33"/>
-    </row>
-    <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="92"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="138"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="150"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="57" t="s">
+    <row r="104" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="132"/>
+      <c r="B104" s="135"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="141"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="41"/>
+      <c r="I104" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J104" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="132"/>
+      <c r="B105" s="135"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="141"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J105" s="33"/>
+    </row>
+    <row r="106" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="132"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="141"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J106" s="33"/>
+    </row>
+    <row r="107" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="132"/>
+      <c r="B107" s="135"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="141"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I107" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J107" s="33"/>
+    </row>
+    <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="132"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="141"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J108" s="33"/>
+    </row>
+    <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="132"/>
+      <c r="B109" s="135"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="141"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I101" s="32" t="s">
+      <c r="I109" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J101" s="33" t="s">
+      <c r="J109" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="92"/>
-      <c r="B102" s="95"/>
-      <c r="C102" s="138"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="150"/>
-      <c r="G102" s="99"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="32" t="s">
+    <row r="110" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="132"/>
+      <c r="B110" s="135"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="141"/>
+      <c r="F110" s="81"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="69"/>
+      <c r="I110" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J102" s="33"/>
-    </row>
-    <row r="103" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="92"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="138"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="150"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="I103" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J103" s="33"/>
-    </row>
-    <row r="104" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="92"/>
-      <c r="B104" s="95"/>
-      <c r="C104" s="138"/>
-      <c r="D104" s="114"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="150"/>
-      <c r="G104" s="100"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J104" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="92"/>
-      <c r="B105" s="95"/>
-      <c r="C105" s="138"/>
-      <c r="D105" s="114"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="150"/>
-      <c r="G105" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" s="41"/>
-      <c r="I105" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J105" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="92"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="138"/>
-      <c r="D106" s="114"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="150"/>
-      <c r="G106" s="99"/>
-      <c r="H106" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="J106" s="33"/>
-    </row>
-    <row r="107" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="92"/>
-      <c r="B107" s="95"/>
-      <c r="C107" s="138"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="150"/>
-      <c r="G107" s="99"/>
-      <c r="H107" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="I107" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="J107" s="33"/>
-    </row>
-    <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="92"/>
-      <c r="B108" s="95"/>
-      <c r="C108" s="138"/>
-      <c r="D108" s="114"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="150"/>
-      <c r="G108" s="99"/>
-      <c r="H108" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J108" s="33"/>
-    </row>
-    <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="92"/>
-      <c r="B109" s="95"/>
-      <c r="C109" s="138"/>
-      <c r="D109" s="114"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="150"/>
-      <c r="G109" s="99"/>
-      <c r="H109" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I109" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J109" s="33"/>
-    </row>
-    <row r="110" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="92"/>
-      <c r="B110" s="95"/>
-      <c r="C110" s="138"/>
-      <c r="D110" s="114"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="150"/>
-      <c r="G110" s="99"/>
-      <c r="H110" s="57" t="s">
+      <c r="J110" s="33"/>
+    </row>
+    <row r="111" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="132"/>
+      <c r="B111" s="135"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="142"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="33"/>
+    </row>
+    <row r="112" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="132"/>
+      <c r="B112" s="135"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="J112" s="37"/>
+    </row>
+    <row r="113" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="132"/>
+      <c r="B113" s="135"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J113" s="33"/>
+    </row>
+    <row r="114" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="132"/>
+      <c r="B114" s="135"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I110" s="32" t="s">
+      <c r="G114" s="35"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J110" s="33" t="s">
+      <c r="J114" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="92"/>
-      <c r="B111" s="95"/>
-      <c r="C111" s="138"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="150"/>
-      <c r="G111" s="99"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J111" s="33"/>
-    </row>
-    <row r="112" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="92"/>
-      <c r="B112" s="95"/>
-      <c r="C112" s="138"/>
-      <c r="D112" s="115"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="151"/>
-      <c r="G112" s="100"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="33"/>
-    </row>
-    <row r="113" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="138"/>
-      <c r="D113" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="143" t="s">
-        <v>123</v>
-      </c>
-      <c r="J113" s="37"/>
-    </row>
-    <row r="114" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="92"/>
-      <c r="B114" s="95"/>
-      <c r="C114" s="138"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="J114" s="33"/>
-    </row>
     <row r="115" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="92"/>
-      <c r="B115" s="95"/>
-      <c r="C115" s="138"/>
+      <c r="A115" s="132"/>
+      <c r="B115" s="135"/>
+      <c r="C115" s="73"/>
       <c r="D115" s="23"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="46" t="s">
-        <v>2</v>
-      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="48"/>
       <c r="G115" s="35"/>
       <c r="H115" s="36"/>
       <c r="I115" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J115" s="33"/>
+    </row>
+    <row r="116" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="132"/>
+      <c r="B116" s="135"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J116" s="33"/>
+    </row>
+    <row r="117" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="132"/>
+      <c r="B117" s="135"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="39"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J115" s="33" t="s">
+      <c r="J117" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="92"/>
-      <c r="B116" s="95"/>
-      <c r="C116" s="138"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J116" s="33"/>
-    </row>
-    <row r="117" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="92"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="138"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J117" s="33"/>
-    </row>
     <row r="118" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="92"/>
-      <c r="B118" s="95"/>
-      <c r="C118" s="138"/>
+      <c r="A118" s="132"/>
+      <c r="B118" s="135"/>
+      <c r="C118" s="73"/>
       <c r="D118" s="23"/>
       <c r="E118" s="16"/>
-      <c r="F118" s="38" t="s">
+      <c r="F118" s="44"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J118" s="33"/>
+    </row>
+    <row r="119" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="132"/>
+      <c r="B119" s="135"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="35"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J119" s="33"/>
+    </row>
+    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="132"/>
+      <c r="B120" s="135"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J120" s="37"/>
+    </row>
+    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="132"/>
+      <c r="B121" s="135"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J121" s="33"/>
+    </row>
+    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="132"/>
+      <c r="B122" s="135"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G118" s="39"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="32" t="s">
+      <c r="G122" s="39"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J118" s="33" t="s">
+      <c r="J122" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="92"/>
-      <c r="B119" s="95"/>
-      <c r="C119" s="138"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="32" t="s">
+    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="132"/>
+      <c r="B123" s="135"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J119" s="33"/>
-    </row>
-    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="92"/>
-      <c r="B120" s="95"/>
-      <c r="C120" s="138"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="35"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J120" s="33"/>
-    </row>
-    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="92"/>
-      <c r="B121" s="95"/>
-      <c r="C121" s="138"/>
-      <c r="D121" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="143" t="s">
-        <v>125</v>
-      </c>
-      <c r="J121" s="37"/>
-    </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="92"/>
-      <c r="B122" s="95"/>
-      <c r="C122" s="138"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="J122" s="33"/>
-    </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="92"/>
-      <c r="B123" s="95"/>
-      <c r="C123" s="138"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="39"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J123" s="33" t="s">
-        <v>77</v>
-      </c>
+      <c r="J123" s="33"/>
     </row>
     <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="92"/>
-      <c r="B124" s="95"/>
-      <c r="C124" s="138"/>
+      <c r="A124" s="132"/>
+      <c r="B124" s="135"/>
+      <c r="C124" s="73"/>
       <c r="D124" s="26"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="45"/>
+      <c r="E124" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="4"/>
       <c r="I124" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J124" s="33"/>
     </row>
     <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="92"/>
-      <c r="B125" s="95"/>
-      <c r="C125" s="138"/>
+      <c r="A125" s="132"/>
+      <c r="B125" s="135"/>
+      <c r="C125" s="73"/>
       <c r="D125" s="26"/>
-      <c r="E125" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="J125" s="33"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="35"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J125" s="37" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="92"/>
-      <c r="B126" s="95"/>
-      <c r="C126" s="138"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="132"/>
+      <c r="B126" s="135"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="12"/>
       <c r="F126" s="47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G126" s="35"/>
       <c r="H126" s="36"/>
       <c r="I126" s="42" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J126" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="92"/>
-      <c r="B127" s="95"/>
-      <c r="C127" s="138"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" s="35"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J127" s="37" t="s">
-        <v>128</v>
-      </c>
+      <c r="A127" s="132"/>
+      <c r="B127" s="135"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="J127" s="37"/>
     </row>
     <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="92"/>
-      <c r="B128" s="95"/>
-      <c r="C128" s="138"/>
-      <c r="D128" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="143" t="s">
-        <v>124</v>
-      </c>
-      <c r="J128" s="37"/>
+      <c r="A128" s="132"/>
+      <c r="B128" s="135"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J128" s="33"/>
     </row>
     <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="92"/>
-      <c r="B129" s="95"/>
-      <c r="C129" s="138"/>
+      <c r="A129" s="132"/>
+      <c r="B129" s="135"/>
+      <c r="C129" s="73"/>
       <c r="D129" s="29"/>
-      <c r="E129" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="4"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G129" s="39"/>
+      <c r="H129" s="40"/>
       <c r="I129" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J129" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="J129" s="33" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="92"/>
-      <c r="B130" s="95"/>
-      <c r="C130" s="138"/>
+      <c r="A130" s="132"/>
+      <c r="B130" s="135"/>
+      <c r="C130" s="73"/>
       <c r="D130" s="29"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G130" s="39"/>
-      <c r="H130" s="40"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="45"/>
       <c r="I130" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J130" s="33" t="s">
-        <v>77</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J130" s="33"/>
     </row>
     <row r="131" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="92"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="138"/>
+      <c r="A131" s="132"/>
+      <c r="B131" s="135"/>
+      <c r="C131" s="73"/>
       <c r="D131" s="29"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="45"/>
-      <c r="I131" s="32" t="s">
-        <v>99</v>
+      <c r="E131" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="J131" s="33"/>
     </row>
     <row r="132" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="92"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="138"/>
+      <c r="A132" s="132"/>
+      <c r="B132" s="135"/>
+      <c r="C132" s="73"/>
       <c r="D132" s="29"/>
-      <c r="E132" s="31" t="s">
-        <v>22</v>
+      <c r="E132" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="42" t="s">
-        <v>87</v>
+      <c r="I132" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="J132" s="33"/>
     </row>
     <row r="133" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="92"/>
-      <c r="B133" s="95"/>
-      <c r="C133" s="138"/>
+      <c r="A133" s="132"/>
+      <c r="B133" s="135"/>
+      <c r="C133" s="73"/>
       <c r="D133" s="29"/>
-      <c r="E133" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="4"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="39"/>
+      <c r="H133" s="40"/>
       <c r="I133" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J133" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="J133" s="33" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="134" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="92"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="138"/>
+      <c r="A134" s="132"/>
+      <c r="B134" s="135"/>
+      <c r="C134" s="73"/>
       <c r="D134" s="29"/>
       <c r="E134" s="11"/>
-      <c r="F134" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G134" s="39"/>
-      <c r="H134" s="40"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="45"/>
       <c r="I134" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J134" s="33" t="s">
-        <v>77</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J134" s="33"/>
     </row>
     <row r="135" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="92"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="138"/>
+      <c r="A135" s="132"/>
+      <c r="B135" s="135"/>
+      <c r="C135" s="73"/>
       <c r="D135" s="29"/>
       <c r="E135" s="11"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="45"/>
+      <c r="F135" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" s="39"/>
+      <c r="H135" s="40"/>
       <c r="I135" s="32" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="J135" s="33"/>
     </row>
     <row r="136" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="92"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="138"/>
+      <c r="A136" s="132"/>
+      <c r="B136" s="135"/>
+      <c r="C136" s="73"/>
       <c r="D136" s="29"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" s="39"/>
-      <c r="H136" s="40"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="45"/>
       <c r="I136" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J136" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="J136" s="33" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="137" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="92"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="138"/>
+      <c r="A137" s="132"/>
+      <c r="B137" s="135"/>
+      <c r="C137" s="73"/>
       <c r="D137" s="29"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="53"/>
-      <c r="H137" s="45"/>
+      <c r="E137" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="9"/>
       <c r="I137" s="32" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J137" s="33" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="92"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="138"/>
+      <c r="A138" s="132"/>
+      <c r="B138" s="135"/>
+      <c r="C138" s="73"/>
       <c r="D138" s="29"/>
-      <c r="E138" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="9"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G138" s="35"/>
+      <c r="H138" s="36"/>
       <c r="I138" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J138" s="33" t="s">
-        <v>78</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J138" s="33"/>
     </row>
     <row r="139" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="92"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="138"/>
+      <c r="A139" s="132"/>
+      <c r="B139" s="135"/>
+      <c r="C139" s="73"/>
       <c r="D139" s="29"/>
       <c r="E139" s="11"/>
       <c r="F139" s="47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G139" s="35"/>
       <c r="H139" s="36"/>
       <c r="I139" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J139" s="33"/>
     </row>
     <row r="140" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="92"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="138"/>
+      <c r="A140" s="132"/>
+      <c r="B140" s="135"/>
+      <c r="C140" s="73"/>
       <c r="D140" s="29"/>
       <c r="E140" s="11"/>
       <c r="F140" s="47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G140" s="35"/>
       <c r="H140" s="36"/>
       <c r="I140" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J140" s="33"/>
     </row>
     <row r="141" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="92"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="138"/>
+      <c r="A141" s="132"/>
+      <c r="B141" s="135"/>
+      <c r="C141" s="73"/>
       <c r="D141" s="29"/>
       <c r="E141" s="11"/>
       <c r="F141" s="47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G141" s="35"/>
       <c r="H141" s="36"/>
       <c r="I141" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J141" s="33"/>
     </row>
     <row r="142" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="92"/>
-      <c r="B142" s="95"/>
-      <c r="C142" s="138"/>
+      <c r="A142" s="132"/>
+      <c r="B142" s="135"/>
+      <c r="C142" s="73"/>
       <c r="D142" s="29"/>
       <c r="E142" s="11"/>
       <c r="F142" s="47" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="36"/>
       <c r="I142" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J142" s="33"/>
-    </row>
-    <row r="143" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="92"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="138"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="47" t="s">
-        <v>2</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J142" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="133"/>
+      <c r="B143" s="136"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="47"/>
       <c r="G143" s="35"/>
       <c r="H143" s="36"/>
-      <c r="I143" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J143" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="93"/>
-      <c r="B144" s="96"/>
-      <c r="C144" s="138"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="33"/>
-    </row>
-    <row r="145" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I143" s="42"/>
+      <c r="J143" s="33"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F144" s="51"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="49"/>
+    </row>
+    <row r="145" spans="6:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="F145" s="51"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="49"/>
+      <c r="I145" s="54" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="146" spans="6:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="F146" s="51"/>
       <c r="I146" s="54" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="6:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="F147" s="51"/>
       <c r="I147" s="54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="6:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="F148" s="51"/>
-      <c r="I148" s="54" t="s">
-        <v>136</v>
-      </c>
+      <c r="I148" s="54"/>
     </row>
     <row r="149" spans="6:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="I149" s="54"/>
@@ -3872,80 +3865,14 @@
     <row r="152" spans="6:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="I152" s="54"/>
     </row>
-    <row r="153" spans="6:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="I153" s="54"/>
-    </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C4:C144"/>
-    <mergeCell ref="F78:F91"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="F99:F112"/>
-    <mergeCell ref="G100:G104"/>
-    <mergeCell ref="G105:G112"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="D5:D55"/>
-    <mergeCell ref="D56:D112"/>
-    <mergeCell ref="F72:F77"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
+  <mergeCells count="109">
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="E50:H50"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -3953,8 +3880,8 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="E6:E18"/>
-    <mergeCell ref="A2:A144"/>
-    <mergeCell ref="B3:B144"/>
+    <mergeCell ref="A2:A143"/>
+    <mergeCell ref="B3:B143"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="F36:H36"/>
@@ -3966,14 +3893,33 @@
     <mergeCell ref="G61:G62"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="G65:H65"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="E92:E112"/>
+    <mergeCell ref="E92:E111"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="F48:H49"/>
-    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="G93:H93"/>
     <mergeCell ref="F59:H59"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G66:H66"/>
@@ -3982,11 +3928,54 @@
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="D5:D56"/>
+    <mergeCell ref="D57:D111"/>
+    <mergeCell ref="F72:F77"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C4:C143"/>
+    <mergeCell ref="F78:F91"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="F98:F111"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="G104:G111"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
